--- a/4 Multiprocessing/file.xlsx
+++ b/4 Multiprocessing/file.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,7 +431,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tested: 11/06/2021 13:04:31</t>
+          <t>Tested: 11/06/2021 16:25:40</t>
         </is>
       </c>
     </row>
@@ -464,402 +464,3994 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.002</v>
+        <v>1e-05</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8658999800682068</v>
+        <v>0.866100013256073</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.004</v>
+        <v>2e-05</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8651999831199646</v>
+        <v>0.866100013256073</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.006</v>
+        <v>3e-05</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8619999885559082</v>
+        <v>0.8659999966621399</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.008</v>
+        <v>4e-05</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8648999929428101</v>
+        <v>0.866100013256073</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01</v>
+        <v>5e-05</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8586000204086304</v>
+        <v>0.866100013256073</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.012</v>
+        <v>6e-05</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8565000295639038</v>
+        <v>0.866100013256073</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.014</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8585000038146973</v>
+        <v>0.866100013256073</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.016</v>
+        <v>8.000000000000001e-05</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8435999751091003</v>
+        <v>0.8661999702453613</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.018</v>
+        <v>9.000000000000001e-05</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8501999974250793</v>
+        <v>0.866100013256073</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.02</v>
+        <v>0.0001</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8435999751091003</v>
+        <v>0.866100013256073</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.022</v>
+        <v>0.00011</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8478999733924866</v>
+        <v>0.8661999702453613</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.024</v>
+        <v>0.00012</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8547000288963318</v>
+        <v>0.8658999800682068</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.026</v>
+        <v>0.00013</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8414999842643738</v>
+        <v>0.8662999868392944</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.028</v>
+        <v>0.00014</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8327999711036682</v>
+        <v>0.8658999800682068</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.03</v>
+        <v>0.00015</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7955999970436096</v>
+        <v>0.8657000064849854</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.032</v>
+        <v>0.00016</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8011000156402588</v>
+        <v>0.8655999898910522</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.034</v>
+        <v>0.00017</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7125999927520752</v>
+        <v>0.8665000200271606</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.036</v>
+        <v>0.00018</v>
       </c>
       <c r="B24" t="n">
-        <v>0.819599986076355</v>
+        <v>0.8658000230789185</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.038</v>
+        <v>0.00019</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7684000134468079</v>
+        <v>0.8662999868392944</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.04</v>
+        <v>0.0002</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6234999895095825</v>
+        <v>0.8658000230789185</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.042</v>
+        <v>0.00021</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7357000112533569</v>
+        <v>0.8658000230789185</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.044</v>
+        <v>0.00022</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7419999837875366</v>
+        <v>0.8659999966621399</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.046</v>
+        <v>0.00023</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7192000150680542</v>
+        <v>0.8658999800682068</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.048</v>
+        <v>0.00024</v>
       </c>
       <c r="B30" t="n">
-        <v>0.616599977016449</v>
+        <v>0.8657000064849854</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.05</v>
+        <v>0.00025</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6305000185966492</v>
+        <v>0.8658999800682068</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.052</v>
+        <v>0.00026</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6335999965667725</v>
+        <v>0.8661999702453613</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.054</v>
+        <v>0.00027</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6481999754905701</v>
+        <v>0.8661999702453613</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.056</v>
+        <v>0.00028</v>
       </c>
       <c r="B34" t="n">
-        <v>0.7121000289916992</v>
+        <v>0.866100013256073</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.058</v>
+        <v>0.00029</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6182000041007996</v>
+        <v>0.8654000163078308</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.06</v>
+        <v>0.0003</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4927999973297119</v>
+        <v>0.8661999702453613</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.062</v>
+        <v>0.00031</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5572999715805054</v>
+        <v>0.8654999732971191</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.064</v>
+        <v>0.00032</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5184999704360962</v>
+        <v>0.8655999898910522</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.066</v>
+        <v>0.00033</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6029999852180481</v>
+        <v>0.8662999868392944</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.068</v>
+        <v>0.00034</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5156999826431274</v>
+        <v>0.8664000034332275</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.00035</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4796999990940094</v>
+        <v>0.8654000163078308</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.00036</v>
       </c>
       <c r="B42" t="n">
-        <v>0.372299998998642</v>
+        <v>0.8657000064849854</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.074</v>
+        <v>0.00037</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4535000026226044</v>
+        <v>0.8655999898910522</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.076</v>
+        <v>0.00038</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4614999890327454</v>
+        <v>0.866100013256073</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.078</v>
+        <v>0.00039</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4616999924182892</v>
+        <v>0.8662999868392944</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.08</v>
+        <v>0.0004</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5291000008583069</v>
+        <v>0.8664000034332275</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.082</v>
+        <v>0.00041</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5281000137329102</v>
+        <v>0.8658999800682068</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.00042</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4316000044345856</v>
+        <v>0.8658999800682068</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.00043</v>
       </c>
       <c r="B49" t="n">
-        <v>0.461899995803833</v>
+        <v>0.8664000034332275</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.00044</v>
       </c>
       <c r="B50" t="n">
-        <v>0.3560999929904938</v>
+        <v>0.8652999997138977</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.09</v>
+        <v>0.00045</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4410000145435333</v>
+        <v>0.8659999966621399</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.092</v>
+        <v>0.00046</v>
       </c>
       <c r="B52" t="n">
-        <v>0.3824999928474426</v>
+        <v>0.8650000095367432</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.094</v>
+        <v>0.00047</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3452000021934509</v>
+        <v>0.8661999702453613</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.096</v>
+        <v>0.00048</v>
       </c>
       <c r="B54" t="n">
-        <v>0.2777999937534332</v>
+        <v>0.8665000200271606</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.098</v>
+        <v>0.00049</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4316999912261963</v>
+        <v>0.8664000034332275</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.1</v>
+        <v>0.0005</v>
       </c>
       <c r="B56" t="n">
-        <v>0.3835999965667725</v>
+        <v>0.8662999868392944</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.00051</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.8662999868392944</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.00052</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.8662999868392944</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.00053</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.8654000163078308</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.00054</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.8658999800682068</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.00055</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.8654000163078308</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.00056</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.8658999800682068</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.00057</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.866599977016449</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.00058</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.866100013256073</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.00059</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.8658000230789185</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.8668000102043152</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.00061</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.8658999800682068</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.00062</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.8664000034332275</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.00063</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.8661999702453613</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.0006400000000000001</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.8654000163078308</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.00065</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.8657000064849854</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.00066</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.8662999868392944</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.00067</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.8654999732971191</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.00068</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.8650000095367432</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.00069</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.8651000261306763</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.8662999868392944</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.00071</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.8661999702453613</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.00072</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.8659999966621399</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.00073</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.8658999800682068</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.00074</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.8658000230789185</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.00075</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.8651999831199646</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.00076</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.8657000064849854</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.00077</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.866100013256073</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.00078</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.8661999702453613</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.00079</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.8658999800682068</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.8658999800682068</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.00081</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.864799976348877</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.00082</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.8650000095367432</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.00083</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.8650000095367432</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.00084</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.8661999702453613</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.00085</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.8665000200271606</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.00086</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.8659999966621399</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.00087</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.8655999898910522</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.00088</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.8659999966621399</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.0008899999999999999</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.8651999831199646</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.8654999732971191</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.00091</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.8661999702453613</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.00092</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.8658999800682068</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.0009300000000000001</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.866100013256073</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.00094</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.8659999966621399</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.00095</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.8658999800682068</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.00096</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.8652999997138977</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.0009700000000000001</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.8658000230789185</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.00098</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.866100013256073</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.00099</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.866599977016449</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.8659999966621399</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.00101</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.8658000230789185</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.00102</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.864799976348877</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.00103</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.8661999702453613</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.00104</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.866100013256073</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.00105</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.8658999800682068</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.00106</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.8658999800682068</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.00107</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.8658999800682068</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.00108</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.8657000064849854</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.00109</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.8654000163078308</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.8668000102043152</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.00111</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.8657000064849854</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.00112</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.8658999800682068</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.00113</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.8654999732971191</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.00114</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.8658000230789185</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.00115</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.8661999702453613</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.00116</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.8658999800682068</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.00117</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.8668000102043152</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.00118</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.8658000230789185</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.00119</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.8654999732971191</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.8662999868392944</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.00121</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.8654999732971191</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.00122</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.8671000003814697</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.00123</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.8664000034332275</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.00124</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.8661999702453613</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.00125</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.8637999892234802</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.00126</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.8664000034332275</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.00127</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.8658999800682068</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.00128</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.8652999997138977</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.00129</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.8654000163078308</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.866599977016449</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.00131</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.8658000230789185</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.00132</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.8644999861717224</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.00133</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.8661999702453613</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.00134</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.8650000095367432</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.00135</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.8657000064849854</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.00136</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.8661999702453613</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.00137</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.8655999898910522</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.00138</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.8661999702453613</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.00139</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.864799976348877</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.8657000064849854</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.00141</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.8655999898910522</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.00142</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.8666999936103821</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.00143</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.8651000261306763</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.00144</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.8651000261306763</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.00145</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.8657000064849854</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.00146</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.8669000267982483</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.00147</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.8651000261306763</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.00148</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.8641999959945679</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.00149</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.864799976348877</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.8664000034332275</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.00151</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.8654999732971191</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.00152</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.8655999898910522</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.00153</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.8666999936103821</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.00154</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.866100013256073</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.00155</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.8658000230789185</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.00156</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.8657000064849854</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.00157</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.8651000261306763</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.00158</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.8654999732971191</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.00159</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.8665000200271606</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.8650000095367432</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.00161</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.8662999868392944</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.00162</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.8650000095367432</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.00163</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.8644000291824341</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.00164</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.8659999966621399</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.00165</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.8654000163078308</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.00166</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.8654999732971191</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.00167</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.8644999861717224</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.00168</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.866599977016449</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.00169</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.8658000230789185</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.8640999794006348</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.00171</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.8651000261306763</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.00172</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.8651000261306763</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.00173</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.8651999831199646</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.00174</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.8659999966621399</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.00175</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.8651999831199646</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.00176</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.8662999868392944</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.00177</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.8658000230789185</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.00178</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.8658999800682068</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.00179</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.8658000230789185</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.0018</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.8654000163078308</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.00181</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.8646000027656555</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.00182</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.8662999868392944</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.00183</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.8657000064849854</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.00184</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.8657000064849854</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.00185</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.8654999732971191</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.00186</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.8640999794006348</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.00187</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.8658000230789185</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.00188</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.8658000230789185</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.00189</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.8657000064849854</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.8654999732971191</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.00191</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.8662999868392944</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.00192</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.8654999732971191</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.00193</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.8647000193595886</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.00194</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.8651000261306763</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.00195</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.8664000034332275</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>0.00196</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.866100013256073</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>0.00197</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.8664000034332275</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>0.00198</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.8640000224113464</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>0.00199</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.8658000230789185</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.8651999831199646</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>0.00201</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.8634999990463257</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>0.00202</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.8669000267982483</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>0.00203</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.8658999800682068</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>0.00204</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.8661999702453613</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>0.00205</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.8659999966621399</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>0.00206</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.866100013256073</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>0.00207</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.866599977016449</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>0.00208</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.8668000102043152</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>0.00209</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.8652999997138977</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.8657000064849854</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>0.00211</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.8651999831199646</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>0.00212</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.8662999868392944</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>0.00213</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.8659999966621399</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>0.00214</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.8644000291824341</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>0.00215</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.8658999800682068</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>0.00216</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.8654999732971191</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>0.00217</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.8651999831199646</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>0.00218</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.864799976348877</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>0.00219</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.8665000200271606</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>0.0022</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.8668000102043152</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>0.00221</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.8666999936103821</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>0.00222</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.864300012588501</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>0.00223</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.866100013256073</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>0.00224</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.8655999898910522</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>0.00225</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.8664000034332275</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>0.00226</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.8672999739646912</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>0.00227</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.8672999739646912</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>0.00228</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.8661999702453613</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>0.00229</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.8650000095367432</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0.8658000230789185</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>0.00231</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0.8650000095367432</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>0.00232</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0.8647000193595886</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>0.00233</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0.8652999997138977</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>0.00234</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0.8648999929428101</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>0.00235</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0.8651000261306763</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>0.00236</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0.8654999732971191</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>0.00237</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0.8654999732971191</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>0.00238</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0.8651000261306763</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>0.00239</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0.8669000267982483</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0.8646000027656555</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>0.00241</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0.866599977016449</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>0.00242</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0.8666999936103821</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>0.00243</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0.8651000261306763</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>0.00244</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0.8669000267982483</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>0.00245</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0.8671000003814697</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>0.00246</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0.8666999936103821</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>0.00247</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0.864799976348877</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>0.00248</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0.866100013256073</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>0.00249</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0.8652999997138977</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0.8658000230789185</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>0.00251</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0.8641999959945679</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>0.00252</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0.8654999732971191</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>0.00253</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0.8664000034332275</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>0.00254</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0.8648999929428101</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>0.00255</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0.8662999868392944</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>0.00256</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0.8626999855041504</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>0.00257</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0.8654000163078308</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>0.00258</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0.8647000193595886</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>0.00259</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0.8634999990463257</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>0.0026</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0.8673999905586243</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>0.00261</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0.8655999898910522</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>0.00262</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0.8654000163078308</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>0.00263</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0.8654000163078308</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>0.00264</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0.8651000261306763</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>0.00265</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0.8644999861717224</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>0.00266</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0.8672000169754028</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>0.00267</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0.8646000027656555</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>0.00268</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0.8657000064849854</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>0.00269</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.8646000027656555</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0.8669000267982483</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>0.00271</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0.8658999800682068</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>0.00272</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0.8657000064849854</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>0.00273</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.864300012588501</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>0.00274</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.8654000163078308</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>0.00275</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.864300012588501</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>0.00276</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0.8641999959945679</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>0.00277</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0.8647000193595886</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>0.00278</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.8651000261306763</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>0.00279</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0.864799976348877</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0.8664000034332275</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>0.00281</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0.8640000224113464</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>0.00282</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0.8646000027656555</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>0.00283</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0.8654000163078308</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>0.00284</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0.8662999868392944</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>0.00285</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0.8672000169754028</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>0.00286</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0.8658999800682068</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>0.00287</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0.8634999990463257</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>0.00288</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0.864799976348877</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>0.00289</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0.8657000064849854</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>0.0029</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0.866599977016449</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>0.00291</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0.8671000003814697</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>0.00292</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0.8661999702453613</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>0.00293</v>
+      </c>
+      <c r="B299" t="n">
+        <v>0.8648999929428101</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>0.00294</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0.8626999855041504</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>0.00295</v>
+      </c>
+      <c r="B301" t="n">
+        <v>0.8644999861717224</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>0.00296</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0.8664000034332275</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>0.00297</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0.8650000095367432</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>0.00298</v>
+      </c>
+      <c r="B304" t="n">
+        <v>0.8651999831199646</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>0.00299</v>
+      </c>
+      <c r="B305" t="n">
+        <v>0.8633999824523926</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="B306" t="n">
+        <v>0.8661999702453613</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>0.00301</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0.8658000230789185</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>0.00302</v>
+      </c>
+      <c r="B308" t="n">
+        <v>0.8640000224113464</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>0.00303</v>
+      </c>
+      <c r="B309" t="n">
+        <v>0.8644000291824341</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>0.00304</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0.8661999702453613</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>0.00305</v>
+      </c>
+      <c r="B311" t="n">
+        <v>0.8665000200271606</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>0.00306</v>
+      </c>
+      <c r="B312" t="n">
+        <v>0.864799976348877</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>0.00307</v>
+      </c>
+      <c r="B313" t="n">
+        <v>0.864300012588501</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>0.00308</v>
+      </c>
+      <c r="B314" t="n">
+        <v>0.864799976348877</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>0.00309</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0.8658000230789185</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>0.0031</v>
+      </c>
+      <c r="B316" t="n">
+        <v>0.8636000156402588</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>0.00311</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0.8657000064849854</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>0.00312</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0.8651000261306763</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>0.00313</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0.8665000200271606</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>0.00314</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0.8652999997138977</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>0.00315</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0.8647000193595886</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>0.00316</v>
+      </c>
+      <c r="B322" t="n">
+        <v>0.8658000230789185</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>0.00317</v>
+      </c>
+      <c r="B323" t="n">
+        <v>0.8662999868392944</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>0.00318</v>
+      </c>
+      <c r="B324" t="n">
+        <v>0.8650000095367432</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>0.00319</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0.8654000163078308</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="B326" t="n">
+        <v>0.8652999997138977</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>0.00321</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0.8654999732971191</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>0.00322</v>
+      </c>
+      <c r="B328" t="n">
+        <v>0.8673999905586243</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>0.00323</v>
+      </c>
+      <c r="B329" t="n">
+        <v>0.866100013256073</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>0.00324</v>
+      </c>
+      <c r="B330" t="n">
+        <v>0.8647000193595886</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>0.00325</v>
+      </c>
+      <c r="B331" t="n">
+        <v>0.8658000230789185</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>0.00326</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0.8652999997138977</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>0.00327</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0.864799976348877</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>0.00328</v>
+      </c>
+      <c r="B334" t="n">
+        <v>0.8666999936103821</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>0.00329</v>
+      </c>
+      <c r="B335" t="n">
+        <v>0.8636999726295471</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>0.0033</v>
+      </c>
+      <c r="B336" t="n">
+        <v>0.8650000095367432</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>0.00331</v>
+      </c>
+      <c r="B337" t="n">
+        <v>0.8662999868392944</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>0.00332</v>
+      </c>
+      <c r="B338" t="n">
+        <v>0.8658000230789185</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>0.00333</v>
+      </c>
+      <c r="B339" t="n">
+        <v>0.864300012588501</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>0.00334</v>
+      </c>
+      <c r="B340" t="n">
+        <v>0.8672000169754028</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>0.00335</v>
+      </c>
+      <c r="B341" t="n">
+        <v>0.8651000261306763</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>0.00336</v>
+      </c>
+      <c r="B342" t="n">
+        <v>0.8657000064849854</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>0.00337</v>
+      </c>
+      <c r="B343" t="n">
+        <v>0.863099992275238</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>0.00338</v>
+      </c>
+      <c r="B344" t="n">
+        <v>0.8636000156402588</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>0.00339</v>
+      </c>
+      <c r="B345" t="n">
+        <v>0.8644999861717224</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>0.0034</v>
+      </c>
+      <c r="B346" t="n">
+        <v>0.8661999702453613</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>0.00341</v>
+      </c>
+      <c r="B347" t="n">
+        <v>0.8652999997138977</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>0.00342</v>
+      </c>
+      <c r="B348" t="n">
+        <v>0.8637999892234802</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>0.00343</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0.8655999898910522</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>0.00344</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0.8640999794006348</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>0.00345</v>
+      </c>
+      <c r="B351" t="n">
+        <v>0.8640999794006348</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>0.00346</v>
+      </c>
+      <c r="B352" t="n">
+        <v>0.8652999997138977</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>0.00347</v>
+      </c>
+      <c r="B353" t="n">
+        <v>0.8671000003814697</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>0.00348</v>
+      </c>
+      <c r="B354" t="n">
+        <v>0.8654999732971191</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>0.00349</v>
+      </c>
+      <c r="B355" t="n">
+        <v>0.8648999929428101</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="B356" t="n">
+        <v>0.8650000095367432</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>0.00351</v>
+      </c>
+      <c r="B357" t="n">
+        <v>0.862500011920929</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>0.00352</v>
+      </c>
+      <c r="B358" t="n">
+        <v>0.8654999732971191</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>0.00353</v>
+      </c>
+      <c r="B359" t="n">
+        <v>0.864799976348877</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>0.00354</v>
+      </c>
+      <c r="B360" t="n">
+        <v>0.8658000230789185</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>0.00355</v>
+      </c>
+      <c r="B361" t="n">
+        <v>0.8650000095367432</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>0.00356</v>
+      </c>
+      <c r="B362" t="n">
+        <v>0.8648999929428101</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>0.00357</v>
+      </c>
+      <c r="B363" t="n">
+        <v>0.8650000095367432</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>0.00358</v>
+      </c>
+      <c r="B364" t="n">
+        <v>0.8658999800682068</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>0.00359</v>
+      </c>
+      <c r="B365" t="n">
+        <v>0.8657000064849854</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>0.0036</v>
+      </c>
+      <c r="B366" t="n">
+        <v>0.8661999702453613</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>0.00361</v>
+      </c>
+      <c r="B367" t="n">
+        <v>0.864799976348877</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>0.00362</v>
+      </c>
+      <c r="B368" t="n">
+        <v>0.866100013256073</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>0.00363</v>
+      </c>
+      <c r="B369" t="n">
+        <v>0.8632000088691711</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>0.00364</v>
+      </c>
+      <c r="B370" t="n">
+        <v>0.8671000003814697</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>0.00365</v>
+      </c>
+      <c r="B371" t="n">
+        <v>0.8640999794006348</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>0.00366</v>
+      </c>
+      <c r="B372" t="n">
+        <v>0.8673999905586243</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>0.00367</v>
+      </c>
+      <c r="B373" t="n">
+        <v>0.8664000034332275</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>0.00368</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0.8637999892234802</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>0.00369</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0.8655999898910522</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>0.0037</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0.8646000027656555</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>0.00371</v>
+      </c>
+      <c r="B377" t="n">
+        <v>0.866100013256073</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>0.00372</v>
+      </c>
+      <c r="B378" t="n">
+        <v>0.8650000095367432</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>0.00373</v>
+      </c>
+      <c r="B379" t="n">
+        <v>0.8646000027656555</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>0.00374</v>
+      </c>
+      <c r="B380" t="n">
+        <v>0.8654000163078308</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>0.00375</v>
+      </c>
+      <c r="B381" t="n">
+        <v>0.8657000064849854</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>0.00376</v>
+      </c>
+      <c r="B382" t="n">
+        <v>0.866599977016449</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>0.00377</v>
+      </c>
+      <c r="B383" t="n">
+        <v>0.8658999800682068</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>0.00378</v>
+      </c>
+      <c r="B384" t="n">
+        <v>0.8644999861717224</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>0.00379</v>
+      </c>
+      <c r="B385" t="n">
+        <v>0.8665000200271606</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>0.0038</v>
+      </c>
+      <c r="B386" t="n">
+        <v>0.8648999929428101</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>0.00381</v>
+      </c>
+      <c r="B387" t="n">
+        <v>0.864300012588501</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>0.00382</v>
+      </c>
+      <c r="B388" t="n">
+        <v>0.8676999807357788</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>0.00383</v>
+      </c>
+      <c r="B389" t="n">
+        <v>0.8633000254631042</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>0.00384</v>
+      </c>
+      <c r="B390" t="n">
+        <v>0.864799976348877</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>0.00385</v>
+      </c>
+      <c r="B391" t="n">
+        <v>0.8646000027656555</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>0.00386</v>
+      </c>
+      <c r="B392" t="n">
+        <v>0.867900013923645</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>0.00387</v>
+      </c>
+      <c r="B393" t="n">
+        <v>0.8651999831199646</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>0.00388</v>
+      </c>
+      <c r="B394" t="n">
+        <v>0.8639000058174133</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>0.00389</v>
+      </c>
+      <c r="B395" t="n">
+        <v>0.8651999831199646</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>0.0039</v>
+      </c>
+      <c r="B396" t="n">
+        <v>0.8629999756813049</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>0.00391</v>
+      </c>
+      <c r="B397" t="n">
+        <v>0.8634999990463257</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>0.00392</v>
+      </c>
+      <c r="B398" t="n">
+        <v>0.8637999892234802</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>0.00393</v>
+      </c>
+      <c r="B399" t="n">
+        <v>0.8672000169754028</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>0.00394</v>
+      </c>
+      <c r="B400" t="n">
+        <v>0.8647000193595886</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>0.00395</v>
+      </c>
+      <c r="B401" t="n">
+        <v>0.8636999726295471</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>0.00396</v>
+      </c>
+      <c r="B402" t="n">
+        <v>0.8629999756813049</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>0.00397</v>
+      </c>
+      <c r="B403" t="n">
+        <v>0.8657000064849854</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>0.00398</v>
+      </c>
+      <c r="B404" t="n">
+        <v>0.8651000261306763</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>0.00399</v>
+      </c>
+      <c r="B405" t="n">
+        <v>0.8661999702453613</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="B406" t="n">
+        <v>0.8658999800682068</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>0.00401</v>
+      </c>
+      <c r="B407" t="n">
+        <v>0.8633000254631042</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>0.00402</v>
+      </c>
+      <c r="B408" t="n">
+        <v>0.8636000156402588</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>0.00403</v>
+      </c>
+      <c r="B409" t="n">
+        <v>0.8634999990463257</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>0.00404</v>
+      </c>
+      <c r="B410" t="n">
+        <v>0.8671000003814697</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>0.00405</v>
+      </c>
+      <c r="B411" t="n">
+        <v>0.8657000064849854</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>0.00406</v>
+      </c>
+      <c r="B412" t="n">
+        <v>0.8650000095367432</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>0.00407</v>
+      </c>
+      <c r="B413" t="n">
+        <v>0.8654999732971191</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>0.00408</v>
+      </c>
+      <c r="B414" t="n">
+        <v>0.8619999885559082</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>0.00409</v>
+      </c>
+      <c r="B415" t="n">
+        <v>0.8666999936103821</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>0.0041</v>
+      </c>
+      <c r="B416" t="n">
+        <v>0.8650000095367432</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>0.00411</v>
+      </c>
+      <c r="B417" t="n">
+        <v>0.8651000261306763</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>0.00412</v>
+      </c>
+      <c r="B418" t="n">
+        <v>0.8668000102043152</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>0.00413</v>
+      </c>
+      <c r="B419" t="n">
+        <v>0.8646000027656555</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>0.00414</v>
+      </c>
+      <c r="B420" t="n">
+        <v>0.8657000064849854</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>0.00415</v>
+      </c>
+      <c r="B421" t="n">
+        <v>0.8662999868392944</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>0.00416</v>
+      </c>
+      <c r="B422" t="n">
+        <v>0.8651000261306763</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>0.00417</v>
+      </c>
+      <c r="B423" t="n">
+        <v>0.8646000027656555</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>0.00418</v>
+      </c>
+      <c r="B424" t="n">
+        <v>0.8654999732971191</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>0.00419</v>
+      </c>
+      <c r="B425" t="n">
+        <v>0.8647000193595886</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>0.0042</v>
+      </c>
+      <c r="B426" t="n">
+        <v>0.8671000003814697</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>0.00421</v>
+      </c>
+      <c r="B427" t="n">
+        <v>0.8662999868392944</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>0.00422</v>
+      </c>
+      <c r="B428" t="n">
+        <v>0.8672000169754028</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>0.00423</v>
+      </c>
+      <c r="B429" t="n">
+        <v>0.8636999726295471</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>0.00424</v>
+      </c>
+      <c r="B430" t="n">
+        <v>0.8655999898910522</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>0.00425</v>
+      </c>
+      <c r="B431" t="n">
+        <v>0.862500011920929</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>0.00426</v>
+      </c>
+      <c r="B432" t="n">
+        <v>0.8644000291824341</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>0.00427</v>
+      </c>
+      <c r="B433" t="n">
+        <v>0.8662999868392944</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>0.00428</v>
+      </c>
+      <c r="B434" t="n">
+        <v>0.864799976348877</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>0.00429</v>
+      </c>
+      <c r="B435" t="n">
+        <v>0.8662999868392944</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>0.0043</v>
+      </c>
+      <c r="B436" t="n">
+        <v>0.8640999794006348</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>0.00431</v>
+      </c>
+      <c r="B437" t="n">
+        <v>0.8648999929428101</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>0.00432</v>
+      </c>
+      <c r="B438" t="n">
+        <v>0.8644999861717224</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>0.00433</v>
+      </c>
+      <c r="B439" t="n">
+        <v>0.8651999831199646</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>0.00434</v>
+      </c>
+      <c r="B440" t="n">
+        <v>0.864799976348877</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>0.00435</v>
+      </c>
+      <c r="B441" t="n">
+        <v>0.8646000027656555</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>0.00436</v>
+      </c>
+      <c r="B442" t="n">
+        <v>0.8639000058174133</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>0.00437</v>
+      </c>
+      <c r="B443" t="n">
+        <v>0.8641999959945679</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>0.00438</v>
+      </c>
+      <c r="B444" t="n">
+        <v>0.8636999726295471</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>0.00439</v>
+      </c>
+      <c r="B445" t="n">
+        <v>0.866100013256073</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="B446" t="n">
+        <v>0.8676999807357788</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>0.00441</v>
+      </c>
+      <c r="B447" t="n">
+        <v>0.8661999702453613</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>0.00442</v>
+      </c>
+      <c r="B448" t="n">
+        <v>0.8636000156402588</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>0.00443</v>
+      </c>
+      <c r="B449" t="n">
+        <v>0.8629000186920166</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>0.00444</v>
+      </c>
+      <c r="B450" t="n">
+        <v>0.8658999800682068</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>0.00445</v>
+      </c>
+      <c r="B451" t="n">
+        <v>0.8659999966621399</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>0.00446</v>
+      </c>
+      <c r="B452" t="n">
+        <v>0.863099992275238</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>0.00447</v>
+      </c>
+      <c r="B453" t="n">
+        <v>0.8654000163078308</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>0.00448</v>
+      </c>
+      <c r="B454" t="n">
+        <v>0.8629000186920166</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>0.00449</v>
+      </c>
+      <c r="B455" t="n">
+        <v>0.8637999892234802</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="B456" t="n">
+        <v>0.866599977016449</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>0.00451</v>
+      </c>
+      <c r="B457" t="n">
+        <v>0.8650000095367432</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>0.00452</v>
+      </c>
+      <c r="B458" t="n">
+        <v>0.8684999942779541</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>0.00453</v>
+      </c>
+      <c r="B459" t="n">
+        <v>0.8637999892234802</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>0.00454</v>
+      </c>
+      <c r="B460" t="n">
+        <v>0.8650000095367432</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>0.00455</v>
+      </c>
+      <c r="B461" t="n">
+        <v>0.8668000102043152</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>0.00456</v>
+      </c>
+      <c r="B462" t="n">
+        <v>0.8644999861717224</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>0.00457</v>
+      </c>
+      <c r="B463" t="n">
+        <v>0.8671000003814697</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>0.00458</v>
+      </c>
+      <c r="B464" t="n">
+        <v>0.8644000291824341</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>0.00459</v>
+      </c>
+      <c r="B465" t="n">
+        <v>0.8640999794006348</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>0.0046</v>
+      </c>
+      <c r="B466" t="n">
+        <v>0.8626999855041504</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>0.00461</v>
+      </c>
+      <c r="B467" t="n">
+        <v>0.8672999739646912</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>0.00462</v>
+      </c>
+      <c r="B468" t="n">
+        <v>0.8644000291824341</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>0.00463</v>
+      </c>
+      <c r="B469" t="n">
+        <v>0.8640999794006348</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>0.00464</v>
+      </c>
+      <c r="B470" t="n">
+        <v>0.8646000027656555</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>0.00465</v>
+      </c>
+      <c r="B471" t="n">
+        <v>0.8640000224113464</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>0.00466</v>
+      </c>
+      <c r="B472" t="n">
+        <v>0.8676999807357788</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>0.00467</v>
+      </c>
+      <c r="B473" t="n">
+        <v>0.8546000123023987</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>0.00468</v>
+      </c>
+      <c r="B474" t="n">
+        <v>0.8658000230789185</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>0.00469</v>
+      </c>
+      <c r="B475" t="n">
+        <v>0.864799976348877</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>0.0047</v>
+      </c>
+      <c r="B476" t="n">
+        <v>0.8601999878883362</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>0.00471</v>
+      </c>
+      <c r="B477" t="n">
+        <v>0.8651999831199646</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>0.00472</v>
+      </c>
+      <c r="B478" t="n">
+        <v>0.8662999868392944</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>0.00473</v>
+      </c>
+      <c r="B479" t="n">
+        <v>0.8629999756813049</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>0.00474</v>
+      </c>
+      <c r="B480" t="n">
+        <v>0.8665000200271606</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>0.00475</v>
+      </c>
+      <c r="B481" t="n">
+        <v>0.8658999800682068</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>0.00476</v>
+      </c>
+      <c r="B482" t="n">
+        <v>0.8637999892234802</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>0.00477</v>
+      </c>
+      <c r="B483" t="n">
+        <v>0.8658000230789185</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>0.00478</v>
+      </c>
+      <c r="B484" t="n">
+        <v>0.8662999868392944</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>0.00479</v>
+      </c>
+      <c r="B485" t="n">
+        <v>0.8654999732971191</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="B486" t="n">
+        <v>0.866100013256073</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>0.00481</v>
+      </c>
+      <c r="B487" t="n">
+        <v>0.8614000082015991</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>0.00482</v>
+      </c>
+      <c r="B488" t="n">
+        <v>0.8659999966621399</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>0.00483</v>
+      </c>
+      <c r="B489" t="n">
+        <v>0.862500011920929</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>0.00484</v>
+      </c>
+      <c r="B490" t="n">
+        <v>0.8633999824523926</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>0.00485</v>
+      </c>
+      <c r="B491" t="n">
+        <v>0.8659999966621399</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>0.00486</v>
+      </c>
+      <c r="B492" t="n">
+        <v>0.866100013256073</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>0.00487</v>
+      </c>
+      <c r="B493" t="n">
+        <v>0.8657000064849854</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>0.00488</v>
+      </c>
+      <c r="B494" t="n">
+        <v>0.866599977016449</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>0.00489</v>
+      </c>
+      <c r="B495" t="n">
+        <v>0.8657000064849854</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>0.0049</v>
+      </c>
+      <c r="B496" t="n">
+        <v>0.8651000261306763</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>0.00491</v>
+      </c>
+      <c r="B497" t="n">
+        <v>0.8669000267982483</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>0.00492</v>
+      </c>
+      <c r="B498" t="n">
+        <v>0.8682000041007996</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>0.00493</v>
+      </c>
+      <c r="B499" t="n">
+        <v>0.8622999787330627</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>0.00494</v>
+      </c>
+      <c r="B500" t="n">
+        <v>0.8647000193595886</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>0.00495</v>
+      </c>
+      <c r="B501" t="n">
+        <v>0.8622999787330627</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>0.00496</v>
+      </c>
+      <c r="B502" t="n">
+        <v>0.8636999726295471</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>0.00497</v>
+      </c>
+      <c r="B503" t="n">
+        <v>0.866100013256073</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>0.00498</v>
+      </c>
+      <c r="B504" t="n">
+        <v>0.8652999997138977</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>0.00499</v>
+      </c>
+      <c r="B505" t="n">
+        <v>0.8644000291824341</v>
       </c>
     </row>
   </sheetData>
